--- a/docs/diagrama de gantt.xlsx
+++ b/docs/diagrama de gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NITRO 5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camil\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C17166-D953-49C9-9BDA-2FDA340480D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C24FD45-CAFB-4365-941F-7773BF7926F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F927F4A5-BACA-4BCC-8E63-A46C48EAC519}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F927F4A5-BACA-4BCC-8E63-A46C48EAC519}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Entrega de valor</t>
   </si>
@@ -118,12 +127,30 @@
   <si>
     <t>Daniela</t>
   </si>
+  <si>
+    <t>Épica 2</t>
+  </si>
+  <si>
+    <t>Entregable 2</t>
+  </si>
+  <si>
+    <t>Limpieza de datos</t>
+  </si>
+  <si>
+    <t>Inrrequesimiento de datos</t>
+  </si>
+  <si>
+    <t>Analisis descriptivo</t>
+  </si>
+  <si>
+    <t>Documentacion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +168,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +221,12 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,6 +329,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>DIAGRAMA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -303,11 +367,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -342,29 +406,90 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Hoja1!$A$34:$A$40</c:f>
+              <c:f>Hoja1!$A$34:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Épica 1</c:v>
                 </c:pt>
@@ -375,7 +500,7 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Épica 1</c:v>
+                  <c:v>Épica 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Épica 1</c:v>
@@ -384,17 +509,32 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Épica 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$34:$D$40</c:f>
+              <c:f>Hoja1!$D$34:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -405,7 +545,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -414,7 +554,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,29 +596,90 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Hoja1!$A$34:$A$40</c:f>
+              <c:f>Hoja1!$A$34:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Épica 1</c:v>
                 </c:pt>
@@ -474,7 +690,7 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Épica 1</c:v>
+                  <c:v>Épica 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Épica 1</c:v>
@@ -483,37 +699,67 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Épica 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$G$34:$G$40</c:f>
+              <c:f>Hoja1!$G$34:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,29 +788,89 @@
             <a:solidFill>
               <a:schemeClr val="accent3">
                 <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Hoja1!$A$34:$A$40</c:f>
+              <c:f>Hoja1!$A$34:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Épica 1</c:v>
                 </c:pt>
@@ -575,7 +881,7 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Épica 1</c:v>
+                  <c:v>Épica 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Épica 1</c:v>
@@ -584,22 +890,37 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Épica 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$L$34:$L$40</c:f>
+              <c:f>Hoja1!$L$34:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -608,13 +929,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,29 +979,89 @@
             <a:solidFill>
               <a:schemeClr val="accent4">
                 <a:lumMod val="60000"/>
+                <a:alpha val="85000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                   </c15:fullRef>
                   <c15:levelRef>
-                    <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                    <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                   </c15:levelRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Hoja1!$A$34:$A$40</c:f>
+              <c:f>Hoja1!$A$34:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Épica 1</c:v>
                 </c:pt>
@@ -676,7 +1072,7 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Épica 1</c:v>
+                  <c:v>Épica 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Épica 1</c:v>
@@ -685,22 +1081,37 @@
                   <c:v>Épica 1</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Épica 2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Épica 1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Épica 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$M$34:$M$40</c:f>
+              <c:f>Hoja1!$M$34:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -709,13 +1120,28 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,8 +1153,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -763,31 +1190,92 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent2">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -798,7 +1286,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -807,7 +1295,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -817,13 +1320,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$E$34:$E$40</c15:sqref>
+                          <c15:sqref>Hoja1!$E$34:$E$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -843,6 +1346,21 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -878,31 +1396,92 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent3"/>
+                    <a:schemeClr val="accent3">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -913,7 +1492,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -922,7 +1501,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -932,13 +1526,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$F$34:$F$40</c15:sqref>
+                          <c15:sqref>Hoja1!$F$34:$F$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -958,6 +1552,21 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -993,31 +1602,92 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent5"/>
+                    <a:schemeClr val="accent5">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -1028,7 +1698,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -1037,7 +1707,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1047,13 +1732,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$H$34:$H$40</c15:sqref>
+                          <c15:sqref>Hoja1!$H$34:$H$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>1</c:v>
                       </c:pt>
@@ -1073,6 +1758,21 @@
                         <c:v>1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>1</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1108,31 +1808,92 @@
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent6"/>
+                    <a:schemeClr val="accent6">
+                      <a:alpha val="85000"/>
+                    </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -1143,7 +1904,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -1152,7 +1913,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1162,13 +1938,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$I$34:$I$40</c15:sqref>
+                          <c15:sqref>Hoja1!$I$34:$I$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0%</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
@@ -1188,6 +1964,21 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
                         <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
@@ -1225,31 +2016,91 @@
                   <a:solidFill>
                     <a:schemeClr val="accent1">
                       <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -1260,7 +2111,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -1269,7 +2120,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1279,33 +2145,48 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$J$34:$J$40</c15:sqref>
+                          <c15:sqref>Hoja1!$J$34:$J$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
-                        <c:v>45968</c:v>
+                        <c:v>45969</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>45968</c:v>
+                        <c:v>45969</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>45969</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>45969</c:v>
+                        <c:v>45983</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>45969</c:v>
+                        <c:v>45968</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>45969</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>45983</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45983</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45981</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>45968</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>45969</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45981</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1342,31 +2223,91 @@
                   <a:solidFill>
                     <a:schemeClr val="accent2">
                       <a:lumMod val="60000"/>
+                      <a:alpha val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:alpha val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1"/>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="es-CO"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="dk1">
+                                <a:lumMod val="50000"/>
+                                <a:lumOff val="50000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Hoja1!$A$34:$C$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$C$45</c15:sqref>
                         </c15:fullRef>
                         <c15:levelRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:levelRef>
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$A$34:$A$40</c15:sqref>
+                          <c15:sqref>Hoja1!$A$34:$A$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>Épica 1</c:v>
                       </c:pt>
@@ -1377,7 +2318,7 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Épica 1</c:v>
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>Épica 1</c:v>
@@ -1386,7 +2327,22 @@
                         <c:v>Épica 1</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Épica 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Épica 1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Épica 2</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1396,13 +2352,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Hoja1!$K$34:$K$40</c15:sqref>
+                          <c15:sqref>Hoja1!$K$34:$K$45</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>45970</c:v>
                       </c:pt>
@@ -1413,7 +2369,7 @@
                         <c:v>45970</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>45970</c:v>
+                        <c:v>45984</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>45970</c:v>
@@ -1422,7 +2378,22 @@
                         <c:v>45970</c:v>
                       </c:pt>
                       <c:pt idx="6">
+                        <c:v>45984</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>45984</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>45984</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
                         <c:v>45970</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>45970</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>45984</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1440,7 +2411,7 @@
       <c:catAx>
         <c:axId val="1210988527"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
+          <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1450,11 +2421,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1466,11 +2437,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1493,17 +2464,29 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1513,35 +2496,8 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1210988527"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1556,7 +2512,12 @@
       <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1569,9 +2530,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1588,14 +2549,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1661,171 +2638,207 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="300">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1841,21 +2854,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1865,23 +2876,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1890,17 +2900,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1909,12 +2919,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1928,30 +2938,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1961,17 +2977,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1980,17 +3007,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1999,17 +3026,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2018,27 +3044,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2046,11 +3080,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2058,14 +3103,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2077,12 +3122,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2091,14 +3136,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2107,9 +3151,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2119,20 +3163,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2141,11 +3184,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2153,14 +3201,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2169,19 +3211,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>318135</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26782</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>159122</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>78105</xdr:colOff>
+      <xdr:colOff>548752</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>187697</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Responsable">
@@ -2204,7 +3246,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2214,8 +3256,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12363450" y="114299"/>
-              <a:ext cx="2076450" cy="2695575"/>
+              <a:off x="12856543" y="159122"/>
+              <a:ext cx="2045970" cy="2695575"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2248,18 +3290,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>658906</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>143996</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="18" name="Sprint">
@@ -2282,7 +3324,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2292,8 +3334,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="114300" y="4848225"/>
-              <a:ext cx="6343650" cy="876300"/>
+              <a:off x="125506" y="4982696"/>
+              <a:ext cx="6339509" cy="876300"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2390,8 +3432,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3B1AF0-13D4-40C5-A4C2-B92450BCC85F}" name="Tabla1" displayName="Tabla1" ref="A33:M40" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A33:M40" xr:uid="{6F3B1AF0-13D4-40C5-A4C2-B92450BCC85F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6F3B1AF0-13D4-40C5-A4C2-B92450BCC85F}" name="Tabla1" displayName="Tabla1" ref="A33:M45" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A33:M45" xr:uid="{6F3B1AF0-13D4-40C5-A4C2-B92450BCC85F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:M45">
+    <sortCondition ref="G33:G45"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{47B46FE4-4856-4264-B631-A3C6F8CFFA8C}" name="Épica" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{AFD1EE95-73A9-44A4-B0AD-5A8D7D7BCEEE}" name="Entrega de valor" dataDxfId="11"/>
@@ -2404,7 +3449,9 @@
     <tableColumn id="9" xr3:uid="{CD215955-B6BB-40FC-B5DD-ED675D3A5DA5}" name="Restante" dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{3585AD9F-C925-4180-A4DB-99955629FFEF}" name="Fecha Inicio" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{33CD02D3-BD29-4625-B56C-4A9315CDAB6A}" name="Fecha Fin" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{C00CC4E4-E69E-4850-B24E-45C75AC40C94}" name="Duración Días" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{C00CC4E4-E69E-4850-B24E-45C75AC40C94}" name="Duración Días" dataDxfId="1">
+      <calculatedColumnFormula>K34 - J34</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="13" xr3:uid="{7BB36BEB-5A3D-4508-B856-F6CAEE654103}" name="%Días" dataDxfId="0">
       <calculatedColumnFormula>H34*L34</calculatedColumnFormula>
     </tableColumn>
@@ -2730,25 +3777,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BED1047-53A5-499D-ACD2-BC5E809F9171}">
-  <dimension ref="A33:M40"/>
+  <dimension ref="A33:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.3984375" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="33" spans="1:13" ht="14.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -2789,7 +3836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2797,19 +3844,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H34" s="4">
         <v>1</v>
@@ -2818,20 +3865,21 @@
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="K34" s="1">
         <v>45970</v>
       </c>
       <c r="L34" s="2">
-        <v>2</v>
+        <f>K34 - J34</f>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
         <f>H34*L34</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>9</v>
       </c>
@@ -2839,19 +3887,19 @@
         <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -2860,20 +3908,21 @@
         <v>0</v>
       </c>
       <c r="J35" s="1">
-        <v>45968</v>
+        <v>45969</v>
       </c>
       <c r="K35" s="1">
         <v>45970</v>
       </c>
       <c r="L35" s="2">
-        <v>2</v>
+        <f>K35 - J35</f>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" ref="M35:M40" si="0">H35*L35</f>
-        <v>2</v>
+        <f>H35*L35</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>9</v>
       </c>
@@ -2881,19 +3930,19 @@
         <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -2901,41 +3950,42 @@
       <c r="I36" s="4">
         <v>0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="1">
         <v>45969</v>
       </c>
       <c r="K36" s="1">
         <v>45970</v>
       </c>
       <c r="L36" s="2">
+        <f>K36 - J36</f>
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="0"/>
+        <f>H36*L36</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>10</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -2943,21 +3993,22 @@
       <c r="I37" s="4">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
-        <v>45969</v>
-      </c>
-      <c r="K37" s="1">
-        <v>45970</v>
+      <c r="J37" s="7">
+        <v>45983</v>
+      </c>
+      <c r="K37" s="7">
+        <v>45984</v>
       </c>
       <c r="L37" s="2">
+        <f>K37 - J37</f>
         <v>1</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="0"/>
+        <f>H37*L37</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2965,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
@@ -2974,10 +4025,10 @@
         <v>25</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
@@ -2986,20 +4037,21 @@
         <v>0</v>
       </c>
       <c r="J38" s="1">
-        <v>45969</v>
+        <v>45968</v>
       </c>
       <c r="K38" s="1">
         <v>45970</v>
       </c>
       <c r="L38" s="2">
-        <v>1</v>
+        <f>K38 - J38</f>
+        <v>2</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H38*L38</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -3007,19 +4059,19 @@
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
@@ -3027,32 +4079,33 @@
       <c r="I39" s="4">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="5">
         <v>45969</v>
       </c>
       <c r="K39" s="1">
         <v>45970</v>
       </c>
       <c r="L39" s="2">
+        <f>K39 - J39</f>
         <v>1</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="0"/>
+        <f>H39*L39</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>10</v>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
@@ -3061,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="G40" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
@@ -3069,21 +4122,238 @@
       <c r="I40" s="4">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="7">
+        <v>45983</v>
+      </c>
+      <c r="K40" s="7">
+        <v>45984</v>
+      </c>
+      <c r="L40" s="2">
+        <f>K40 - J40</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="2">
+        <f>H40*L40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2">
+        <v>60</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>45983</v>
+      </c>
+      <c r="K41" s="7">
+        <v>45984</v>
+      </c>
+      <c r="L41" s="2">
+        <f>K41 - J41</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="2">
+        <f>H41*L41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2">
+        <v>70</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>45981</v>
+      </c>
+      <c r="K42" s="7">
+        <v>45984</v>
+      </c>
+      <c r="L42" s="2">
+        <f>K42 - J42</f>
+        <v>3</v>
+      </c>
+      <c r="M42" s="2">
+        <f>H42*L42</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="2">
+        <v>80</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>45968</v>
+      </c>
+      <c r="K43" s="1">
+        <v>45970</v>
+      </c>
+      <c r="L43" s="2">
+        <f>K43 - J43</f>
+        <v>2</v>
+      </c>
+      <c r="M43" s="2">
+        <f>H43*L43</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2">
+        <v>90</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
         <v>45969</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K44" s="1">
         <v>45970</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L44" s="2">
+        <f>K44 - J44</f>
         <v>1</v>
       </c>
-      <c r="M40" s="2">
-        <f t="shared" si="0"/>
+      <c r="M44" s="2">
+        <f>H44*L44</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="6">
+        <v>2</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="6">
+        <v>90</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>45981</v>
+      </c>
+      <c r="K45" s="7">
+        <v>45984</v>
+      </c>
+      <c r="L45" s="2">
+        <f>K45 - J45</f>
+        <v>3</v>
+      </c>
+      <c r="M45" s="2">
+        <f>H45*L45</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
